--- a/PROJECT 1 APP.VWO.COM/2 Test Cases Documents/TEST CASES DOCUMENT - VWO.xlsx
+++ b/PROJECT 1 APP.VWO.COM/2 Test Cases Documents/TEST CASES DOCUMENT - VWO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TESTING MATERIAL\MANUAL TESTING PROJECTS\PROJECT 1 APP.VWO.COM\2 Test Cases Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TESTING MATERIAL\MANUAL TESTING PROJECTS\Manual_Testing_Projects\PROJECT 1 APP.VWO.COM\2 Test Cases Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49F378E-D396-4F50-93F0-718CD1AA27AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1301462-1F7F-4310-9239-93C14E9C0E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DCAAC72B-E497-4A2C-BE0B-ABD873F558DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DCAAC72B-E497-4A2C-BE0B-ABD873F558DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Test Case Title/Test Scenario Description</t>
   </si>
   <si>
     <t>Pre-requisites</t>
@@ -886,11 +883,6 @@
     <t>Validate each and every part of login page is accessible smoothly</t>
   </si>
   <si>
-    <t>1. Open Browser
-2. Type app.vwo.com in search box 
-3. Click enter (ER-1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. User should get logged in the same account and taken to 'User Dashboard' Page in Laptop , phone , tablet.
 </t>
   </si>
@@ -2883,6 +2875,14 @@
   </si>
   <si>
     <t>TC_LF_47</t>
+  </si>
+  <si>
+    <t>Test Case Title/Test Case Description</t>
+  </si>
+  <si>
+    <t>1. Open a Browser
+2. Type app.vwo.com in search box 
+3. Click enter (ER-1)</t>
   </si>
 </sst>
 </file>
@@ -3098,7 +3098,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3189,9 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3512,7 +3509,7 @@
   <dimension ref="F6:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3547,10 +3544,10 @@
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.3">
@@ -3587,7 +3584,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3674,7 +3671,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -3726,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F170D971-5F42-44DB-91CD-F4CB9DF733B6}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" zoomScale="81" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="81" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3753,1921 +3750,1921 @@
         <v>29</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>446</v>
-      </c>
       <c r="H2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>743</v>
-      </c>
-      <c r="F7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>745</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I10" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D23" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>384</v>
-      </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I26" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>487</v>
-      </c>
       <c r="F27" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I28" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I31" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E42" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I43" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I44" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C46" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>500</v>
-      </c>
       <c r="H46" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="H47" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I48" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I54" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5680,8 +5677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51620F12-12ED-4832-BF16-ACC71EAA33B7}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="F53" zoomScale="72" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5709,1683 +5706,1683 @@
         <v>29</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="H4" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="G7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="I7" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="18"/>
       <c r="I17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="F33" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="H33" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E37" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="G37" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E40" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="G40" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="G41" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="F48" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
@@ -7416,8 +7413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA91236-61EC-4D7B-872F-5FBD5868293C}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="F1" zoomScale="66" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7444,959 +7441,959 @@
         <v>29</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>595</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>580</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>582</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="39"/>
@@ -8405,65 +8402,65 @@
     </row>
     <row r="27" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>27</v>
@@ -8475,187 +8472,187 @@
     </row>
     <row r="29" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
       <c r="M31" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="39"/>
       <c r="M33" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
